--- a/Toy프로젝트/file_string.xlsx
+++ b/Toy프로젝트/file_string.xlsx
@@ -679,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,13 +687,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -701,10 +701,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -712,21 +712,21 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -734,10 +734,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -745,10 +745,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -756,10 +756,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -767,10 +767,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -778,10 +778,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -789,20 +789,31 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
     </row>
